--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAEFA19-85EF-4D2D-8392-6DFAC29DF35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E5F9C-0888-45CD-BEE1-2502DD6D3930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,14 +190,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -484,7 +477,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +566,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="12">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -585,7 +578,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -595,7 +588,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E5F9C-0888-45CD-BEE1-2502DD6D3930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA185C87-6828-44F1-8144-1B0BF4FFC808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +566,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -578,7 +578,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="14">
         <f>SUM(D2:D6)</f>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA185C87-6828-44F1-8144-1B0BF4FFC808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8868A8-813E-43EC-885B-B9AC6A2BCF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8868A8-813E-43EC-885B-B9AC6A2BCF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03E4A30-E657-422F-8AB3-2E69CDAAF6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03E4A30-E657-422F-8AB3-2E69CDAAF6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D45B47-BA69-4DE9-8DE9-C00F99E0453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D45B47-BA69-4DE9-8DE9-C00F99E0453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3393361-11F7-4ABE-BAD1-DC85FFED7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Exams/Exam-03/Program_CheckList.xlsx
+++ b/Exams/Exam-03/Program_CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3393361-11F7-4ABE-BAD1-DC85FFED7C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6F4E0-41D4-49D6-A4C5-BA527B302327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
